--- a/target/Screenshot/TestData.xlsx
+++ b/target/Screenshot/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaque.silva\Hub-workspace\ProjetoAvaliacao_TDD\target\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaque.silva\Hub-appium\AppiumTdd\target\Screenshot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16124296-6F56-4024-9D07-7727DEC953A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F6B8E1-0C40-42BC-84F3-E9B08C4D93A3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="705" windowWidth="16200" windowHeight="9360" xr2:uid="{0256AA05-52C9-4FA5-99DB-EDC75ED19327}"/>
+    <workbookView xWindow="780" yWindow="705" windowWidth="18915" windowHeight="9360" xr2:uid="{0256AA05-52C9-4FA5-99DB-EDC75ED19327}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>txtbox_UserName</t>
   </si>
@@ -128,14 +128,17 @@
     <t>ISAQUEDani</t>
   </si>
   <si>
-    <t>ISAQUEDani03</t>
+    <t>Isaque</t>
+  </si>
+  <si>
+    <t>ISAQUEAvh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +167,12 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -214,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -224,6 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -551,7 +561,10 @@
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
     <col min="12" max="12" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -595,19 +608,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>12</v>
@@ -676,7 +689,7 @@
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
